--- a/extractosBancarios/dataprueba/0635-17102022.xlsx
+++ b/extractosBancarios/dataprueba/0635-17102022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x11832\Documents\ProyectosDaniel\VENADO\conectDrive\formatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DanielBots\SapHunter\extractosBancarios\23112022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608FF5EC-243F-402C-B2F2-C91B6718D2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41896AF9-EC44-4C2D-9BEB-72F3AAF75C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -255,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -278,6 +278,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -308,7 +309,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,211 +636,212 @@
     <col min="11" max="11" width="26.28515625" customWidth="1"/>
     <col min="12" max="12" width="9.140625" customWidth="1"/>
     <col min="13" max="13" width="15.42578125" customWidth="1"/>
+    <col min="15" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" spans="1:13" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
     </row>
     <row r="4" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="14" t="s">
+      <c r="F4" s="13"/>
+      <c r="G4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="K4" s="12" t="s">
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="K4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="12"/>
+      <c r="L4" s="13"/>
       <c r="M4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="14" t="s">
+      <c r="F5" s="13"/>
+      <c r="G5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="K5" s="12" t="s">
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="K5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="12"/>
+      <c r="L5" s="13"/>
       <c r="M5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="3"/>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="12"/>
+      <c r="L6" s="13"/>
       <c r="M6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="14" t="s">
+      <c r="F7" s="13"/>
+      <c r="G7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="K7" s="12" t="s">
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="K7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="12"/>
+      <c r="L7" s="13"/>
       <c r="M7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="12"/>
+      <c r="L8" s="13"/>
       <c r="M8" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -841,7 +851,7 @@
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="8">
         <v>44685</v>
       </c>
       <c r="D16">
@@ -872,28 +882,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15" t="s">
+      <c r="D17" s="16"/>
+      <c r="E17" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15" t="s">
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
       <c r="L17" s="4" t="s">
         <v>36</v>
       </c>
@@ -901,445 +911,447 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>44685</v>
       </c>
       <c r="B18" s="6">
         <v>0.47222222222222199</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="17">
         <v>303116278</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17" t="s">
+      <c r="D18" s="17"/>
+      <c r="E18" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17" t="s">
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
       <c r="L18" s="7">
         <v>-160</v>
       </c>
-      <c r="M18" s="7">
-        <v>320815.53000000003</v>
-      </c>
-      <c r="N18" s="1">
+      <c r="M18" s="20">
+        <v>87641.55</v>
+      </c>
+      <c r="O18" s="19">
         <f>M18-L18</f>
-        <v>320975.53000000003</v>
-      </c>
-      <c r="O18" s="1">
-        <f>M4-N18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+        <v>87801.55</v>
+      </c>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="1">
+        <v>87801.55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>44685</v>
       </c>
       <c r="B19" s="6">
         <v>0.72013888888888899</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="17">
         <v>303120380</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17" t="s">
+      <c r="D19" s="17"/>
+      <c r="E19" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17" t="s">
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
       <c r="L19" s="7">
         <v>329000</v>
       </c>
-      <c r="M19" s="7">
-        <v>649815.53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="21">
+        <v>416641.55</v>
+      </c>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+    </row>
+    <row r="20" spans="1:17" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>44685</v>
       </c>
       <c r="B20" s="6">
         <v>0.72037037037036999</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="17">
         <v>303120385</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17" t="s">
+      <c r="D20" s="17"/>
+      <c r="E20" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17" t="s">
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
       <c r="L20" s="7">
         <v>177000</v>
       </c>
-      <c r="M20" s="7">
-        <v>826815.53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M20" s="21">
+        <v>593641.55000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>44685</v>
       </c>
       <c r="B21" s="6">
         <v>0.72060185185185199</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="17">
         <v>303120394</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17" t="s">
+      <c r="D21" s="17"/>
+      <c r="E21" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17" t="s">
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
       <c r="L21" s="7">
         <v>75900</v>
       </c>
-      <c r="M21" s="7">
-        <v>902715.53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M21" s="21">
+        <v>669541.55000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>44685</v>
       </c>
       <c r="B22" s="6">
         <v>0.72129629629629599</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="17">
         <v>303120408</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17" t="s">
+      <c r="D22" s="17"/>
+      <c r="E22" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17" t="s">
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
       <c r="L22" s="7">
         <v>581875</v>
       </c>
-      <c r="M22" s="7">
-        <v>1484590.53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="21">
+        <v>1251416.55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>44686</v>
       </c>
       <c r="B23" s="6">
         <v>0.63668981481481501</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="17">
         <v>303131540</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17" t="s">
+      <c r="D23" s="17"/>
+      <c r="E23" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17" t="s">
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
       <c r="L23" s="7">
         <v>581875</v>
       </c>
-      <c r="M23" s="7">
-        <v>2066465.53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M23" s="21">
+        <v>1833291.55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>44686</v>
       </c>
       <c r="B24" s="6">
         <v>0.63749999999999996</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="17">
         <v>303131552</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17" t="s">
+      <c r="D24" s="17"/>
+      <c r="E24" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17" t="s">
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
       <c r="L24" s="7">
         <v>447000</v>
       </c>
-      <c r="M24" s="7">
-        <v>2513465.5299999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M24" s="21">
+        <v>2280291.5499999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>44686</v>
       </c>
       <c r="B25" s="6">
         <v>0.63773148148148195</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="17">
         <v>303131555</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17" t="s">
+      <c r="D25" s="17"/>
+      <c r="E25" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17" t="s">
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
       <c r="L25" s="7">
         <v>129000</v>
       </c>
-      <c r="M25" s="7">
-        <v>2642465.5299999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M25" s="21">
+        <v>2409291.5499999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>44686</v>
       </c>
       <c r="B26" s="6">
         <v>0.63773148148148195</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="17">
         <v>303131556</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17" t="s">
+      <c r="D26" s="17"/>
+      <c r="E26" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17" t="s">
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
       <c r="L26" s="7">
         <v>5900</v>
       </c>
-      <c r="M26" s="7">
-        <v>2648365.5299999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M26" s="21">
+        <v>2415191.5499999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>44687</v>
       </c>
       <c r="B27" s="6">
         <v>0.66886574074074101</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="17">
         <v>303143548</v>
       </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17" t="s">
+      <c r="D27" s="17"/>
+      <c r="E27" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17" t="s">
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
       <c r="L27" s="7">
         <v>119000</v>
       </c>
-      <c r="M27" s="7">
-        <v>2767365.53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M27" s="21">
+        <v>2534191.5499999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>44687</v>
       </c>
       <c r="B28" s="6">
         <v>0.66886574074074101</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="17">
         <v>303143550</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17" t="s">
+      <c r="D28" s="17"/>
+      <c r="E28" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17" t="s">
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
       <c r="L28" s="7">
         <v>105000</v>
       </c>
-      <c r="M28" s="7">
-        <v>2872365.53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M28" s="21">
+        <v>2639191.5499999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>44687</v>
       </c>
       <c r="B29" s="6">
         <v>0.66932870370370401</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="17">
         <v>303143557</v>
       </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17" t="s">
+      <c r="D29" s="17"/>
+      <c r="E29" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17" t="s">
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
       <c r="L29" s="7">
         <v>584024</v>
       </c>
-      <c r="M29" s="7">
-        <v>3456389.53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M29" s="21">
+        <v>3223215.55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>44690</v>
       </c>
       <c r="B30" s="6">
         <v>0.22436342592592601</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="17">
         <v>303151289</v>
       </c>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17" t="s">
+      <c r="D30" s="17"/>
+      <c r="E30" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
       <c r="L30" s="7">
         <v>-42330.67</v>
       </c>
-      <c r="M30" s="7">
-        <v>3414058.86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M30" s="21">
+        <v>3180884.88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>44690</v>
       </c>
       <c r="B31" s="6">
         <v>0.51109953703703703</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="17">
         <v>303161113</v>
       </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="17" t="s">
+      <c r="D31" s="17"/>
+      <c r="E31" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17" t="s">
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
       <c r="L31" s="7">
         <v>78000</v>
       </c>
-      <c r="M31" s="7">
-        <v>3492058.86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M31" s="21">
+        <v>3258884.88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>44690</v>
       </c>
       <c r="B32" s="6">
         <v>0.51145833333333302</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="17">
         <v>303161117</v>
       </c>
-      <c r="D32" s="16"/>
-      <c r="E32" s="17" t="s">
+      <c r="D32" s="17"/>
+      <c r="E32" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17" t="s">
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
       <c r="L32" s="7">
         <v>160000</v>
       </c>
-      <c r="M32" s="7">
-        <v>3652058.86</v>
+      <c r="M32" s="21">
+        <v>3418884.88</v>
       </c>
     </row>
     <row r="33" spans="1:13" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -1349,26 +1361,26 @@
       <c r="B33" s="6">
         <v>0.51167824074074097</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="17">
         <v>303161120</v>
       </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="17" t="s">
+      <c r="D33" s="17"/>
+      <c r="E33" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17" t="s">
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
       <c r="L33" s="7">
         <v>155000</v>
       </c>
-      <c r="M33" s="7">
-        <v>3807058.86</v>
+      <c r="M33" s="21">
+        <v>3573884.88</v>
       </c>
     </row>
     <row r="34" spans="1:13" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -1378,26 +1390,26 @@
       <c r="B34" s="6">
         <v>0.51180555555555596</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="17">
         <v>303161121</v>
       </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="17" t="s">
+      <c r="D34" s="17"/>
+      <c r="E34" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17" t="s">
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
       <c r="L34" s="7">
         <v>551024</v>
       </c>
-      <c r="M34" s="7">
-        <v>4358082.8600000003</v>
+      <c r="M34" s="21">
+        <v>4124908.88</v>
       </c>
     </row>
     <row r="35" spans="1:13" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -1407,26 +1419,26 @@
       <c r="B35" s="6">
         <v>0.51260416666666697</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="17">
         <v>303161149</v>
       </c>
-      <c r="D35" s="16"/>
-      <c r="E35" s="17" t="s">
+      <c r="D35" s="17"/>
+      <c r="E35" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17" t="s">
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
       <c r="L35" s="7">
         <v>584024</v>
       </c>
-      <c r="M35" s="7">
-        <v>4942106.8600000003</v>
+      <c r="M35" s="21">
+        <v>4708932.88</v>
       </c>
     </row>
     <row r="36" spans="1:13" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -1436,26 +1448,26 @@
       <c r="B36" s="6">
         <v>0.53649305555555604</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="17">
         <v>30041512</v>
       </c>
-      <c r="D36" s="16"/>
-      <c r="E36" s="17" t="s">
+      <c r="D36" s="17"/>
+      <c r="E36" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17" t="s">
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
       <c r="L36" s="7">
         <v>-3610504.34</v>
       </c>
-      <c r="M36" s="7">
-        <v>1331602.52</v>
+      <c r="M36" s="21">
+        <v>1098428.54</v>
       </c>
     </row>
     <row r="37" spans="1:13" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -1465,26 +1477,26 @@
       <c r="B37" s="6">
         <v>0.53672453703703704</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="17">
         <v>30041516</v>
       </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="17" t="s">
+      <c r="D37" s="17"/>
+      <c r="E37" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17" t="s">
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
       <c r="L37" s="7">
         <v>-1061681.25</v>
       </c>
-      <c r="M37" s="7">
-        <v>269921.27</v>
+      <c r="M37" s="21">
+        <v>36747.290000000037</v>
       </c>
     </row>
     <row r="38" spans="1:13" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -1494,26 +1506,26 @@
       <c r="B38" s="6">
         <v>0.58356481481481504</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="17">
         <v>303208526</v>
       </c>
-      <c r="D38" s="16"/>
-      <c r="E38" s="17" t="s">
+      <c r="D38" s="17"/>
+      <c r="E38" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17" t="s">
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
       <c r="L38" s="7">
         <v>21853611.289999999</v>
       </c>
-      <c r="M38" s="7">
-        <v>22123532.559999999</v>
+      <c r="M38" s="21">
+        <v>21890358.579999998</v>
       </c>
     </row>
     <row r="39" spans="1:13" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -1523,26 +1535,26 @@
       <c r="B39" s="6">
         <v>0.60949074074074105</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="17">
         <v>30056982</v>
       </c>
-      <c r="D39" s="16"/>
-      <c r="E39" s="17" t="s">
+      <c r="D39" s="17"/>
+      <c r="E39" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17" t="s">
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
       <c r="L39" s="7">
         <v>-3511374.99</v>
       </c>
-      <c r="M39" s="7">
-        <v>18612157.57</v>
+      <c r="M39" s="21">
+        <v>18378983.589999996</v>
       </c>
     </row>
     <row r="40" spans="1:13" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -1552,26 +1564,26 @@
       <c r="B40" s="6">
         <v>0.61086805555555601</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="17">
         <v>30056990</v>
       </c>
-      <c r="D40" s="16"/>
-      <c r="E40" s="17" t="s">
+      <c r="D40" s="17"/>
+      <c r="E40" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17" t="s">
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
       <c r="L40" s="7">
         <v>-10581646.92</v>
       </c>
-      <c r="M40" s="7">
-        <v>8030510.6500000004</v>
+      <c r="M40" s="21">
+        <v>7797336.6699999962</v>
       </c>
     </row>
     <row r="41" spans="1:13" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -1581,26 +1593,26 @@
       <c r="B41" s="6">
         <v>0.61162037037036998</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="17">
         <v>30056997</v>
       </c>
-      <c r="D41" s="16"/>
-      <c r="E41" s="17" t="s">
+      <c r="D41" s="17"/>
+      <c r="E41" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17" t="s">
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
       <c r="L41" s="7">
         <v>-7760589.3799999999</v>
       </c>
-      <c r="M41" s="7">
-        <v>269921.27</v>
+      <c r="M41" s="21">
+        <v>36747.289999996312</v>
       </c>
     </row>
     <row r="42" spans="1:13" s="1" customFormat="1" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -1610,26 +1622,26 @@
       <c r="B42" s="6">
         <v>1.07060185185185E-2</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="17">
         <v>303369682</v>
       </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="17" t="s">
+      <c r="D42" s="17"/>
+      <c r="E42" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17" t="s">
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
       <c r="L42" s="7">
         <v>0.57999999999999996</v>
       </c>
-      <c r="M42" s="7">
-        <v>269921.84999999998</v>
+      <c r="M42" s="21">
+        <v>36747.869999996314</v>
       </c>
     </row>
   </sheetData>
@@ -1747,15 +1759,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005CEA4A3271DCBA4EAAF6546E5E72E6B9" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="9f4703c42411a0ab2cbe4f76d07c363a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67a8ef32-fc59-4c7d-bd11-99ee693961a8" xmlns:ns3="5ba551d7-4968-4bed-ac2a-9940209dff60" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6a08d7022bf1d2286744d4d783241da1" ns2:_="" ns3:_="">
     <xsd:import namespace="67a8ef32-fc59-4c7d-bd11-99ee693961a8"/>
@@ -1920,21 +1923,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67ED10D4-7354-42AF-A428-7F61346831A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6922B371-6CEA-4125-A63F-FF165ABF27C6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1953,11 +1957,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1397F40-B46D-4EC2-94EA-D715E0727DC1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67ED10D4-7354-42AF-A428-7F61346831A8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>